--- a/model/output.xlsx
+++ b/model/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/btan/Documents/GitHub/covstretch/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{413EEC73-13DE-3840-BD26-E754AF64EC44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423E6894-1DD3-4E41-AD30-21AF6B118407}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="17740" windowHeight="17040" xr2:uid="{E783DA70-CBAB-8A4E-8E50-1C9981DF3801}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Age Group</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Doses / Population</t>
+  </si>
+  <si>
+    <t>Mar 10 12:30pm</t>
   </si>
 </sst>
 </file>
@@ -599,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDBC02F-BE80-3E4A-868D-427C182EF1FC}">
   <dimension ref="F7:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:R31"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="84" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -887,8 +890,8 @@
       <c r="N14" s="14">
         <v>1</v>
       </c>
-      <c r="O14" s="14">
-        <v>1</v>
+      <c r="O14" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="P14" s="14">
         <v>1</v>
